--- a/tests/e2e/result.xlsx
+++ b/tests/e2e/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="157">
   <si>
     <t>repo_name</t>
   </si>
@@ -505,9 +505,6 @@
     <t xml:space="preserve">complex setup with cluster and Java dependencies </t>
   </si>
   <si>
-    <t xml:space="preserve"> 00:28:19</t>
-  </si>
-  <si>
     <t>rfuse</t>
   </si>
   <si>
@@ -554,6 +551,9 @@
   </si>
   <si>
     <t>fmtlib/fmt</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
   <si>
     <t>nlohmann/json</t>
@@ -848,18 +848,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1180,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,16 +1198,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1222,89 +1216,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,13 +1320,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,8 +1853,8 @@
   <sheetPr/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1882,7 +1873,7 @@
     <col min="14" max="14" width="16.8653846153846" customWidth="1"/>
     <col min="16" max="16" width="17.7115384615385" customWidth="1"/>
     <col min="18" max="18" width="14.7596153846154" customWidth="1"/>
-    <col min="19" max="19" width="12.9230769230769" customWidth="1"/>
+    <col min="19" max="19" width="15.6057692307692" customWidth="1"/>
     <col min="20" max="20" width="9.69230769230769"/>
   </cols>
   <sheetData>
@@ -2051,9 +2042,18 @@
       <c r="P4" t="s">
         <v>24</v>
       </c>
+      <c r="Q4" s="8">
+        <v>0.00196759259259259</v>
+      </c>
+      <c r="R4">
+        <v>10565361</v>
+      </c>
+      <c r="S4">
+        <v>10668858</v>
+      </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103497</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:20">
@@ -2157,6 +2157,9 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
       <c r="L7" t="s">
         <v>24</v>
       </c>
@@ -2165,10 +2168,19 @@
       </c>
       <c r="P7" t="s">
         <v>24</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.00481481481481482</v>
+      </c>
+      <c r="R7">
+        <v>10679230</v>
+      </c>
+      <c r="S7">
+        <v>10710455</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31225</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:20">
@@ -2203,13 +2215,13 @@
       <c r="P8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="8">
         <v>0.0049537037037037</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8">
         <v>2396934</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8">
         <v>2598728</v>
       </c>
       <c r="T8">
@@ -2255,10 +2267,10 @@
       <c r="P9" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="8">
         <v>0.00349537037037037</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9">
         <v>2623477</v>
       </c>
       <c r="S9">
@@ -2307,9 +2319,18 @@
       <c r="P10" t="s">
         <v>24</v>
       </c>
+      <c r="Q10" s="8">
+        <v>0.00337962962962963</v>
+      </c>
+      <c r="R10">
+        <v>10710455</v>
+      </c>
+      <c r="S10">
+        <v>10974471</v>
+      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>264016</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:20">
@@ -2381,7 +2402,7 @@
       <c r="P12" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="8">
         <v>0.0033912037037037</v>
       </c>
       <c r="R12">
@@ -2580,13 +2601,13 @@
       <c r="P17" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="8">
         <v>0.0173032407407407</v>
       </c>
       <c r="R17">
         <v>2144020</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17">
         <v>2396934</v>
       </c>
       <c r="T17">
@@ -2629,13 +2650,13 @@
       <c r="P18" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="8">
         <v>0.0037962962962963</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18">
         <v>10386655</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18">
         <v>10450925</v>
       </c>
       <c r="T18">
@@ -2718,13 +2739,13 @@
       <c r="P20" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="8">
         <v>0.0071875</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20">
         <v>10216529</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20">
         <v>10386655</v>
       </c>
       <c r="T20">
@@ -2759,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
         <v>24</v>
@@ -2767,13 +2788,13 @@
       <c r="P21" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" t="s">
-        <v>108</v>
+      <c r="Q21" s="8">
+        <v>0.0196643518518519</v>
       </c>
       <c r="R21">
         <v>2647834</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21">
         <v>9755506</v>
       </c>
       <c r="T21">
@@ -2783,23 +2804,23 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -2820,23 +2841,23 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -2857,13 +2878,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" t="s">
         <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -2871,13 +2892,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2885,13 +2906,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2899,30 +2920,33 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="C27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2930,13 +2954,13 @@
         <v>125</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2944,13 +2968,13 @@
         <v>126</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" t="s">
-        <v>119</v>
-      </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2958,13 +2982,13 @@
         <v>127</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>119</v>
-      </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2972,10 +2996,10 @@
         <v>128</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>129</v>
@@ -2986,10 +3010,10 @@
         <v>130</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
       </c>
       <c r="F33" t="s">
         <v>129</v>
@@ -3000,10 +3024,10 @@
         <v>131</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
       </c>
       <c r="F34" t="s">
         <v>129</v>
@@ -3014,10 +3038,10 @@
         <v>132</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
         <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>119</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -3028,10 +3052,10 @@
         <v>133</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
         <v>118</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -3042,10 +3066,10 @@
         <v>134</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
         <v>118</v>
-      </c>
-      <c r="C37" t="s">
-        <v>119</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -3056,10 +3080,10 @@
         <v>135</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
       </c>
       <c r="F38" t="s">
         <v>136</v>
@@ -3070,10 +3094,10 @@
         <v>137</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
       </c>
       <c r="F39" t="s">
         <v>136</v>
@@ -3084,10 +3108,10 @@
         <v>138</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
         <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
       </c>
       <c r="F40" t="s">
         <v>136</v>
@@ -3098,10 +3122,10 @@
         <v>139</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
         <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
       </c>
       <c r="F41" t="s">
         <v>136</v>
@@ -3112,10 +3136,10 @@
         <v>140</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
         <v>118</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
       </c>
       <c r="F42" t="s">
         <v>136</v>
@@ -3126,10 +3150,10 @@
         <v>141</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
       </c>
       <c r="F43" t="s">
         <v>136</v>
@@ -3140,10 +3164,10 @@
         <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
         <v>118</v>
-      </c>
-      <c r="C44" t="s">
-        <v>119</v>
       </c>
       <c r="F44" t="s">
         <v>101</v>
@@ -3154,10 +3178,10 @@
         <v>143</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
         <v>118</v>
-      </c>
-      <c r="C45" t="s">
-        <v>119</v>
       </c>
       <c r="F45" t="s">
         <v>101</v>
@@ -3168,10 +3192,10 @@
         <v>144</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
       </c>
       <c r="F46" t="s">
         <v>101</v>
@@ -3182,10 +3206,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
         <v>118</v>
-      </c>
-      <c r="C47" t="s">
-        <v>119</v>
       </c>
       <c r="F47" t="s">
         <v>101</v>
@@ -3196,10 +3220,10 @@
         <v>146</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
         <v>118</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
       </c>
       <c r="F48" t="s">
         <v>101</v>
@@ -3210,10 +3234,10 @@
         <v>147</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
         <v>118</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
       </c>
       <c r="F49" t="s">
         <v>101</v>
@@ -3224,10 +3248,10 @@
         <v>148</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
         <v>118</v>
-      </c>
-      <c r="C50" t="s">
-        <v>119</v>
       </c>
       <c r="F50" t="s">
         <v>101</v>
@@ -3238,10 +3262,10 @@
         <v>149</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>119</v>
       </c>
       <c r="F51" t="s">
         <v>101</v>
@@ -3252,10 +3276,10 @@
         <v>150</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" t="s">
-        <v>119</v>
       </c>
       <c r="F52" t="s">
         <v>101</v>
@@ -3266,10 +3290,10 @@
         <v>151</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
         <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>119</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
@@ -3280,10 +3304,10 @@
         <v>152</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
       </c>
       <c r="F54" t="s">
         <v>153</v>
@@ -3294,10 +3318,10 @@
         <v>154</v>
       </c>
       <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
         <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>119</v>
       </c>
       <c r="F55" t="s">
         <v>153</v>
@@ -3308,10 +3332,10 @@
         <v>155</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
         <v>118</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
       </c>
       <c r="F56" t="s">
         <v>153</v>

--- a/tests/e2e/result.xlsx
+++ b/tests/e2e/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14560"/>
+    <workbookView windowWidth="21360" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="160">
   <si>
     <t>repo_name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t>baseline</t>
   </si>
   <si>
     <t>RelTR</t>
@@ -283,6 +286,9 @@
     <t>complicated with kernel compilation and specialized hardware setup</t>
   </si>
   <si>
+    <t>1h+</t>
+  </si>
+  <si>
     <t>SymMC</t>
   </si>
   <si>
@@ -431,6 +437,9 @@
   </si>
   <si>
     <t>python-based with k8s and docker setup</t>
+  </si>
+  <si>
+    <t>96min</t>
   </si>
   <si>
     <t>Baleen</t>
@@ -1851,10 +1860,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1877,7 +1886,7 @@
     <col min="20" max="20" width="9.69230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1932,25 +1941,28 @@
       <c r="T1" t="s">
         <v>17</v>
       </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1959,34 +1971,34 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T11" si="0">S2-R2</f>
+        <f t="shared" ref="T2:T12" si="0">S2-R2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1995,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
@@ -2007,22 +2019,22 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -2031,16 +2043,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="8">
         <v>0.00196759259259259</v>
@@ -2058,22 +2070,22 @@
     </row>
     <row r="5" ht="17" spans="1:20">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -2082,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
@@ -2094,23 +2106,23 @@
     </row>
     <row r="6" ht="17" spans="1:20">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -2119,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
@@ -2134,22 +2146,22 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -2158,16 +2170,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="8">
         <v>0.00481481481481482</v>
@@ -2185,23 +2197,23 @@
     </row>
     <row r="8" ht="17" spans="1:20">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -2210,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="8">
         <v>0.0049537037037037</v>
@@ -2229,25 +2241,25 @@
         <v>201794</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:20">
+    <row r="9" ht="17" spans="1:21">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -2256,16 +2268,16 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="8">
         <v>0.00349537037037037</v>
@@ -2280,26 +2292,29 @@
         <f t="shared" si="0"/>
         <v>24357</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -2308,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="8">
         <v>0.00337962962962963</v>
@@ -2332,26 +2347,29 @@
         <f t="shared" si="0"/>
         <v>264016</v>
       </c>
+      <c r="U10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" ht="17" spans="1:20">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -2360,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
@@ -2372,23 +2390,23 @@
     </row>
     <row r="12" ht="17" spans="1:20">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2397,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="8">
         <v>0.0033912037037037</v>
@@ -2412,29 +2430,29 @@
         <v>2144020</v>
       </c>
       <c r="T12">
-        <f>S12-R12</f>
+        <f t="shared" si="0"/>
         <v>47729</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:20">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -2443,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T13">
         <f t="shared" ref="T13:T23" si="1">S13-R13</f>
@@ -2455,23 +2473,23 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -2480,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
@@ -2492,23 +2510,23 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -2517,10 +2535,10 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
@@ -2529,23 +2547,23 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -2554,37 +2572,37 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -2593,13 +2611,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="8">
         <v>0.0173032407407407</v>
@@ -2614,26 +2632,29 @@
         <f t="shared" si="1"/>
         <v>252914</v>
       </c>
+      <c r="U17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -2642,13 +2663,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="8">
         <v>0.0037962962962963</v>
@@ -2666,23 +2687,23 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -2691,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T19">
         <f t="shared" si="1"/>
@@ -2703,23 +2724,23 @@
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -2728,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="8">
         <v>0.0071875</v>
@@ -2755,23 +2776,23 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -2780,13 +2801,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="8">
         <v>0.0196643518518519</v>
@@ -2804,23 +2825,23 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -2829,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T22">
         <f t="shared" si="1"/>
@@ -2841,23 +2862,23 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -2866,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
@@ -2878,472 +2899,472 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
         <v>125</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="s">
         <v>139</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
